--- a/Results/KNN_Norm_CV_results.xlsx
+++ b/Results/KNN_Norm_CV_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,426 +643,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CV=11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>65.76%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>66.52%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>65.76%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>65.18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CV=13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>66.35%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>66.83%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>66.35%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>65.76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CV=15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>65.38%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.33%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>65.38%</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>64.77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CV=17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66.36%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>66.78%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>66.36%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>65.72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CV=19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.39%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>65.85%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>65.39%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>64.82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CV=21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>66.32%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>67.46%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>66.32%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>65.49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CV=23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>66.14%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>66.84%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>66.14%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>65.41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CV=25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>65.81%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>67.61%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>65.81%</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>65.16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CV=27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>65.59%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>67.25%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>65.59%</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>64.98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CV=29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>65.28%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>66.30%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>65.28%</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>64.51%</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/KNN_Norm_CV_results.xlsx
+++ b/Results/KNN_Norm_CV_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,158 +488,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
+          <t>{'metric': 'euclidean', 'n_neighbors': 21, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CV=3</t>
+          <t>CV=10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.37%</t>
+          <t>65.40%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>65.99%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>65.40%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>64.91%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>64.37%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>63.62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'distance'}</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CV=5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.35%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.84%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>65.35%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>64.51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CV=7</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65.54%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>65.73%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>65.54%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>65.05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KNNClassifier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 39, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CV=9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>65.35%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>66.25%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>65.35%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>64.85%</t>
         </is>
       </c>
     </row>

--- a/Results/KNN_Norm_CV_results.xlsx
+++ b/Results/KNN_Norm_CV_results.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 21, 'weights': 'uniform'}</t>
+          <t>{'metric': 'euclidean', 'n_neighbors': 39, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,22 +498,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.40%</t>
+          <t>65.35%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65.99%</t>
+          <t>66.25%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>65.40%</t>
+          <t>65.35%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>64.91%</t>
+          <t>64.85%</t>
         </is>
       </c>
     </row>
